--- a/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="432">
   <si>
     <t>Name:</t>
   </si>
@@ -1064,24 +1064,6 @@
     <t>parameter_name</t>
   </si>
   <si>
-    <t xml:space="preserve">init_prop_age2030_w5_some_ed_sec   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_p_unimproved_sanitation   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_p_no_clean_drinking_water    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_p_wood_burn_stove    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_p_no_access_handwashing    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_rural   </t>
-  </si>
-  <si>
     <t>init_p_high_sugar</t>
   </si>
   <si>
@@ -1091,24 +1073,12 @@
     <t>r_higher_bmi</t>
   </si>
   <si>
-    <t xml:space="preserve">r_lower_bmi    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_higher_bmi_f </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_higher_bmi_urban </t>
-  </si>
-  <si>
     <t>rr_higher_bmi_high_sugar</t>
   </si>
   <si>
     <t>rr_higher_bmi_per_higher_wealth</t>
   </si>
   <si>
-    <t xml:space="preserve">rr_higher_bmi_tob </t>
-  </si>
-  <si>
     <t>rr_lower_bmi_tob</t>
   </si>
   <si>
@@ -1139,18 +1109,9 @@
     <t>r_not_high_salt</t>
   </si>
   <si>
-    <t>rr_not_low_salt_pop_advice_salt</t>
-  </si>
-  <si>
     <t>init_p_bmi_urban_m_not_high_sugar_age1529_not_tob_wealth1</t>
   </si>
   <si>
-    <t xml:space="preserve">rr_higher_bmi_age3049 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_higher_bmi_agege50 </t>
-  </si>
-  <si>
     <t>init_or_higher_bmi_rural</t>
   </si>
   <si>
@@ -1169,39 +1130,6 @@
     <t>init_or_higher_bmi_per_higher_wealth</t>
   </si>
   <si>
-    <t xml:space="preserve">init_or_some_ed_per_higher_wealth    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_sec_age1320    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_sec_age3040    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_sec_age4050    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_sec_age5060   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_sec_agege60   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_some_ed_sec_per_higher_wealth    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_unimproved_sanitation_rural    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_no_clean_drinking_water    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_wood_burn_stove    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_or_no_access_handwashing_per_lower_wealth    </t>
-  </si>
-  <si>
     <t>value1</t>
   </si>
   <si>
@@ -1217,9 +1145,6 @@
     <t>value5</t>
   </si>
   <si>
-    <t xml:space="preserve">r_urban      </t>
-  </si>
-  <si>
     <t>init_p_low_ex_urban_m</t>
   </si>
   <si>
@@ -1335,6 +1260,69 @@
   </si>
   <si>
     <t>init_or_some_ed_age2030</t>
+  </si>
+  <si>
+    <t>init_prop_age2030_w5_some_ed_sec</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_sec_age1320</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_sec_age3040</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_sec_age4050</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_sec_age5060</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_sec_agege60</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_sec_per_higher_wealth</t>
+  </si>
+  <si>
+    <t>init_or_unimproved_sanitation_rural</t>
+  </si>
+  <si>
+    <t>init_or_no_access_handwashing_per_lower_wealth</t>
+  </si>
+  <si>
+    <t>r_urban</t>
+  </si>
+  <si>
+    <t>r_rural</t>
+  </si>
+  <si>
+    <t>rr_higher_bmi_urban</t>
+  </si>
+  <si>
+    <t>rr_higher_bmi_f</t>
+  </si>
+  <si>
+    <t>rr_higher_bmi_age3049</t>
+  </si>
+  <si>
+    <t>rr_higher_bmi_agege50</t>
+  </si>
+  <si>
+    <t>rr_higher_bmi_tob</t>
+  </si>
+  <si>
+    <t>r_lower_bmi</t>
+  </si>
+  <si>
+    <t>init_or_some_ed_per_higher_wealth</t>
+  </si>
+  <si>
+    <t>init_or_no_clean_drinking_water_rural</t>
+  </si>
+  <si>
+    <t>init_or_wood_burn_stove_rural</t>
+  </si>
+  <si>
+    <t>rr_not_high_salt_pop_advice_salt</t>
   </si>
 </sst>
 </file>
@@ -2847,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2863,19 +2851,19 @@
         <v>344</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2932,7 +2920,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="58" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B5" s="54">
         <v>0.4</v>
@@ -2952,7 +2940,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B6" s="54">
         <v>1.5</v>
@@ -2960,7 +2948,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="58" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B7" s="54">
         <v>1.5</v>
@@ -2970,7 +2958,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="58" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B8" s="54">
         <v>1.1000000000000001</v>
@@ -2979,7 +2967,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="58" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B9" s="54">
         <v>1.8</v>
@@ -2988,7 +2976,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="58" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B10" s="54">
         <v>2.5</v>
@@ -2997,7 +2985,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="58" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B11" s="54">
         <v>0.7</v>
@@ -3006,7 +2994,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="58" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B12" s="54">
         <v>1.01</v>
@@ -3015,7 +3003,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="58" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B13" s="54">
         <v>0.4</v>
@@ -3024,7 +3012,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B14" s="54">
         <v>0.2</v>
@@ -3033,7 +3021,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="58" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B15" s="54">
         <v>1.5</v>
@@ -3060,7 +3048,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="53" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="B18" s="54">
         <v>0.32</v>
@@ -3069,7 +3057,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="53" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="B19" s="54">
         <v>0.4</v>
@@ -3078,7 +3066,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="53" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="B20" s="54">
         <v>0.6</v>
@@ -3087,7 +3075,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="53" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="B21" s="54">
         <v>0.7</v>
@@ -3171,7 +3159,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="B27" s="54">
         <v>0.97</v>
@@ -3182,7 +3170,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="53" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="B28" s="54">
         <v>1.01</v>
@@ -3191,7 +3179,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="53" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="B29" s="54">
         <v>1</v>
@@ -3200,7 +3188,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="53" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B30" s="54">
         <v>1</v>
@@ -3209,7 +3197,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="53" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="B31" s="54">
         <v>1</v>
@@ -3218,7 +3206,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="53" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="B32" s="54">
         <v>0.99</v>
@@ -3227,7 +3215,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="53" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="B33" s="54">
         <v>0.99</v>
@@ -3236,7 +3224,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="53" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="B34" s="54">
         <v>0.98</v>
@@ -3248,7 +3236,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="B35" s="54">
         <v>1.0049999999999999</v>
@@ -3257,7 +3245,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="53" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="B36" s="54">
         <v>0.2</v>
@@ -3266,7 +3254,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="53" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="B37" s="54">
         <v>1</v>
@@ -3275,7 +3263,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="53" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="B38" s="54">
         <v>0.9</v>
@@ -3284,7 +3272,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="53" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="B39" s="54">
         <v>0.85</v>
@@ -3293,7 +3281,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="53" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="B40" s="54">
         <v>0.8</v>
@@ -3302,7 +3290,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="53" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="B41" s="54">
         <v>0.75</v>
@@ -3311,7 +3299,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="53" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="B42" s="54">
         <v>1.48</v>
@@ -3320,7 +3308,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="53" t="s">
-        <v>346</v>
+        <v>138</v>
       </c>
       <c r="B43" s="54">
         <v>0.04</v>
@@ -3329,7 +3317,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="53" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="B44" s="54">
         <v>4.5</v>
@@ -3338,7 +3326,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="53" t="s">
-        <v>347</v>
+        <v>139</v>
       </c>
       <c r="B45" s="54">
         <v>1.7000000000000001E-2</v>
@@ -3347,7 +3335,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="B46" s="52">
         <v>8.6</v>
@@ -3356,7 +3344,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="53" t="s">
-        <v>348</v>
+        <v>136</v>
       </c>
       <c r="B47" s="52">
         <v>0.25700000000000001</v>
@@ -3365,7 +3353,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="53" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="B48" s="52">
         <v>3.6</v>
@@ -3374,7 +3362,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="53" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="B49" s="52">
         <v>0.47799999999999998</v>
@@ -3383,7 +3371,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="B50" s="52">
         <v>1.06</v>
@@ -3392,7 +3380,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="B51" s="52">
         <v>5.0000000000000001E-4</v>
@@ -3401,7 +3389,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="B52" s="52">
         <v>1.0000000000000001E-5</v>
@@ -3410,7 +3398,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="53" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B53" s="54">
         <v>5.0000000000000001E-4</v>
@@ -3419,7 +3407,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="B54" s="54">
         <v>1.5</v>
@@ -3428,7 +3416,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="55" t="s">
-        <v>355</v>
+        <v>423</v>
       </c>
       <c r="B55" s="54">
         <v>3</v>
@@ -3437,7 +3425,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="55" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="B56" s="54">
         <v>1.8</v>
@@ -3446,7 +3434,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="55" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="B57" s="54">
         <v>2.5</v>
@@ -3455,7 +3443,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="55" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="B58" s="54">
         <v>0.7</v>
@@ -3464,7 +3452,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="55" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B59" s="54">
         <v>1.1499999999999999</v>
@@ -3473,7 +3461,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="53" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B60" s="54">
         <v>1.2</v>
@@ -3482,7 +3470,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="53" t="s">
-        <v>354</v>
+        <v>427</v>
       </c>
       <c r="B61" s="54">
         <v>1E-3</v>
@@ -3491,7 +3479,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="55" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B62" s="54">
         <v>0.8</v>
@@ -3500,7 +3488,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="55" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B63" s="54">
         <v>1.1000000000000001</v>
@@ -3509,7 +3497,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="55" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B64" s="54">
         <v>3.0000000000000001E-3</v>
@@ -3518,7 +3506,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="55" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B65" s="54">
         <v>1.5</v>
@@ -3527,7 +3515,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="55" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B66" s="54">
         <v>1E-4</v>
@@ -3536,7 +3524,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="56" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="B67" s="54">
         <v>1.1000000000000001</v>
@@ -3545,7 +3533,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="55" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B68" s="54">
         <v>1E-4</v>
@@ -3554,7 +3542,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="55" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B69" s="54">
         <v>1E-4</v>
@@ -3563,7 +3551,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="53" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="B70" s="54">
         <v>1E-3</v>
@@ -3572,7 +3560,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="53" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="B71" s="54">
         <v>1E-4</v>
@@ -3581,7 +3569,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="53" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B72" s="54">
         <v>1.1000000000000001</v>
@@ -3590,7 +3578,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="53" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="B73" s="52">
         <v>0.6</v>
@@ -3599,7 +3587,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="53" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="B74" s="52">
         <v>2</v>
@@ -3608,7 +3596,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="53" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="B75" s="52">
         <v>4.0000000000000002E-4</v>
@@ -3617,7 +3605,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="53" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="B76" s="52">
         <v>0</v>
@@ -3626,7 +3614,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="53" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="B77" s="52">
         <v>0.1</v>
@@ -3635,7 +3623,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="53" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="B78" s="52">
         <v>1.2</v>
@@ -3644,7 +3632,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="53" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="B79" s="52">
         <v>1.5</v>
@@ -3653,7 +3641,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="53" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B80" s="54">
         <v>1.3</v>
@@ -3662,7 +3650,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="55" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B81" s="54">
         <v>1.1000000000000001</v>
@@ -3671,7 +3659,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="53" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="B82" s="54">
         <v>3.0000000000000001E-3</v>
@@ -3680,7 +3668,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="53" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="B83" s="54">
         <v>0</v>
@@ -3691,7 +3679,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="53" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="B84" s="54">
         <v>7.0000000000000007E-2</v>
@@ -3700,7 +3688,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="53" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B85" s="54">
         <v>1.1000000000000001</v>
@@ -3709,7 +3697,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="53" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="B86" s="54">
         <v>0.03</v>
@@ -3718,7 +3706,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="53" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="B87" s="54">
         <v>0.01</v>
@@ -3727,7 +3715,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="53" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="B88" s="54">
         <v>1E-3</v>
@@ -3736,7 +3724,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="53" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="B89" s="52">
         <v>1.5</v>
@@ -3745,7 +3733,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="53" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="B90" s="52">
         <v>0.94</v>
@@ -3754,7 +3742,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="53" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B91" s="52">
         <v>1.01</v>
@@ -3763,7 +3751,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="53" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="B92" s="52">
         <v>0.2</v>
@@ -3772,7 +3760,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="53" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="B93" s="52">
         <v>1.45</v>
@@ -3781,7 +3769,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="53" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="B94" s="52">
         <v>1E-3</v>
@@ -3790,7 +3778,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="53" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="B95" s="52">
         <v>1E-3</v>
@@ -3799,7 +3787,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="53" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B96" s="52">
         <v>1E-3</v>
@@ -3808,7 +3796,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="53" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B97" s="52">
         <v>1E-3</v>

--- a/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="433">
   <si>
     <t>Name:</t>
   </si>
@@ -1238,9 +1238,6 @@
     <t>p_ed_primary</t>
   </si>
   <si>
-    <t>or_ed_primary_higher_wealth</t>
-  </si>
-  <si>
     <t>p_ed_secondary</t>
   </si>
   <si>
@@ -1256,9 +1253,6 @@
     <t>r_access_handwashing</t>
   </si>
   <si>
-    <t>or_ed_secondary_higher_wealth</t>
-  </si>
-  <si>
     <t>init_or_some_ed_age2030</t>
   </si>
   <si>
@@ -1323,6 +1317,15 @@
   </si>
   <si>
     <t>rr_not_high_salt_pop_advice_salt</t>
+  </si>
+  <si>
+    <t>rr_not_high_sugar_pop_advice_sugar</t>
+  </si>
+  <si>
+    <t>pr_ed_secondary_higher_wealth</t>
+  </si>
+  <si>
+    <t>pr_ed_primary_higher_wealth</t>
   </si>
 </sst>
 </file>
@@ -2833,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3188,7 +3191,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="53" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B30" s="54">
         <v>1</v>
@@ -3236,7 +3239,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B35" s="54">
         <v>1.0049999999999999</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="53" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B36" s="54">
         <v>0.2</v>
@@ -3254,7 +3257,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="53" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B37" s="54">
         <v>1</v>
@@ -3263,7 +3266,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="53" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B38" s="54">
         <v>0.9</v>
@@ -3272,7 +3275,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="53" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B39" s="54">
         <v>0.85</v>
@@ -3281,7 +3284,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="53" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B40" s="54">
         <v>0.8</v>
@@ -3290,7 +3293,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="53" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B41" s="54">
         <v>0.75</v>
@@ -3299,7 +3302,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B42" s="54">
         <v>1.48</v>
@@ -3317,7 +3320,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="53" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B44" s="54">
         <v>4.5</v>
@@ -3335,7 +3338,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B46" s="52">
         <v>8.6</v>
@@ -3353,7 +3356,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="53" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B48" s="52">
         <v>3.6</v>
@@ -3371,7 +3374,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B50" s="52">
         <v>1.06</v>
@@ -3380,7 +3383,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B51" s="52">
         <v>5.0000000000000001E-4</v>
@@ -3389,7 +3392,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B52" s="52">
         <v>1.0000000000000001E-5</v>
@@ -3407,7 +3410,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B54" s="54">
         <v>1.5</v>
@@ -3416,7 +3419,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="55" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B55" s="54">
         <v>3</v>
@@ -3425,7 +3428,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="55" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B56" s="54">
         <v>1.8</v>
@@ -3434,7 +3437,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="55" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B57" s="54">
         <v>2.5</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="55" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B58" s="54">
         <v>0.7</v>
@@ -3470,7 +3473,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="53" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B61" s="54">
         <v>1E-3</v>
@@ -3524,7 +3527,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="56" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B67" s="54">
         <v>1.1000000000000001</v>
@@ -3550,235 +3553,235 @@
       <c r="C69" s="52"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="53" t="s">
-        <v>394</v>
+      <c r="A70" s="55" t="s">
+        <v>430</v>
       </c>
       <c r="B70" s="54">
-        <v>1E-3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C70" s="52"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="53" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B71" s="54">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C71" s="52"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="53" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="B72" s="54">
-        <v>1.1000000000000001</v>
+        <v>1E-4</v>
       </c>
       <c r="C72" s="52"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="53" t="s">
-        <v>392</v>
-      </c>
-      <c r="B73" s="52">
-        <v>0.6</v>
+        <v>354</v>
+      </c>
+      <c r="B73" s="54">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C73" s="52"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="53" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B74" s="52">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="C74" s="52"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="53" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B75" s="52">
-        <v>4.0000000000000002E-4</v>
+        <v>2</v>
       </c>
       <c r="C75" s="52"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="53" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B76" s="52">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C76" s="52"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="53" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B77" s="52">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C77" s="52"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="53" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B78" s="52">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="C78" s="52"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="53" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B79" s="52">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C79" s="52"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="B80" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="C80" s="52"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="B80" s="54">
+      <c r="B81" s="54">
         <v>1.3</v>
       </c>
-      <c r="C80" s="52"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="55" t="s">
+      <c r="C81" s="52"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="55" t="s">
         <v>352</v>
       </c>
-      <c r="B81" s="54">
+      <c r="B82" s="54">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="C81" s="52"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="53" t="s">
-        <v>395</v>
-      </c>
-      <c r="B82" s="54">
-        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C82" s="52"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B83" s="54">
-        <v>0</v>
-      </c>
-      <c r="C83" s="52" t="s">
-        <v>23</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C83" s="52"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B84" s="54">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C84" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="53" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="B85" s="54">
-        <v>1.1000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C85" s="52"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="53" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="B86" s="54">
-        <v>0.03</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C86" s="52"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B87" s="54">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="C87" s="52"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B88" s="54">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C88" s="52"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="53" t="s">
-        <v>401</v>
-      </c>
-      <c r="B89" s="52">
-        <v>1.5</v>
+        <v>400</v>
+      </c>
+      <c r="B89" s="54">
+        <v>1E-3</v>
       </c>
       <c r="C89" s="52"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B90" s="52">
-        <v>0.94</v>
+        <v>1.5</v>
       </c>
       <c r="C90" s="52"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B91" s="52">
-        <v>1.01</v>
+        <v>0.94</v>
       </c>
       <c r="C91" s="52"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="53" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="B92" s="52">
-        <v>0.2</v>
+        <v>1.01</v>
       </c>
       <c r="C92" s="52"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="53" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B93" s="52">
-        <v>1.45</v>
+        <v>0.2</v>
       </c>
       <c r="C93" s="52"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="53" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="B94" s="52">
-        <v>1E-3</v>
+        <v>1.45</v>
       </c>
       <c r="C94" s="52"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="53" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B95" s="52">
         <v>1E-3</v>
@@ -3787,7 +3790,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="53" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B96" s="52">
         <v>1E-3</v>
@@ -3796,7 +3799,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="53" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B97" s="52">
         <v>1E-3</v>
@@ -3804,15 +3807,24 @@
       <c r="C97" s="52"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="51"/>
+      <c r="A98" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="B98" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="C98" s="52"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="51"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="51"/>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -4991,7 +4991,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5587,7 +5587,7 @@
         <v>323</v>
       </c>
       <c r="B44" s="30">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>

--- a/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="2620" windowWidth="22920" windowHeight="13680" activeTab="3"/>
+    <workbookView xWindow="5600" yWindow="2620" windowWidth="22920" windowHeight="13680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -612,9 +612,6 @@
     <t xml:space="preserve">r_stop_ed     </t>
   </si>
   <si>
-    <t>probabilities per 3 months of stopping education if wealth level 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">r_div_wid       </t>
   </si>
   <si>
@@ -1251,6 +1248,9 @@
   </si>
   <si>
     <t>li_urban, li_wealth, li_low_ex, li_bmi, li_tob, li_ex_alc, li_in_ed, li_ed_lev, li_mar_stat, li_high_salt, li_high_sugar</t>
+  </si>
+  <si>
+    <t>probabilities per 3 months of stopping education once in secondary education if wealth level 5</t>
   </si>
 </sst>
 </file>
@@ -2609,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
@@ -2647,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
@@ -3711,8 +3711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C122"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3757,16 +3757,16 @@
         <v>95</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>401</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>402</v>
       </c>
       <c r="C8" s="16"/>
     </row>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>403</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>404</v>
       </c>
       <c r="C10" s="16"/>
     </row>
@@ -3886,7 +3886,7 @@
         <v>92</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3894,10 +3894,10 @@
         <v>117</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3905,10 +3905,10 @@
         <v>118</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3916,10 +3916,10 @@
         <v>119</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3927,10 +3927,10 @@
         <v>121</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3938,10 +3938,10 @@
         <v>120</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3949,32 +3949,32 @@
         <v>122</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>214</v>
-      </c>
       <c r="C30" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -3985,7 +3985,7 @@
         <v>141</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3993,18 +3993,18 @@
         <v>124</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>72</v>
@@ -4012,10 +4012,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>72</v>
@@ -4023,10 +4023,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>72</v>
@@ -4034,98 +4034,98 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>72</v>
@@ -4136,10 +4136,10 @@
         <v>125</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -4147,10 +4147,10 @@
         <v>76</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -4158,10 +4158,10 @@
         <v>77</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -4169,10 +4169,10 @@
         <v>75</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -4180,10 +4180,10 @@
         <v>126</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -4191,10 +4191,10 @@
         <v>127</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -4202,10 +4202,10 @@
         <v>128</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -4216,7 +4216,7 @@
         <v>130</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -4227,7 +4227,7 @@
         <v>132</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -4238,7 +4238,7 @@
         <v>134</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -4249,7 +4249,7 @@
         <v>136</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -4260,7 +4260,7 @@
         <v>138</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -4271,7 +4271,7 @@
         <v>140</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -4282,7 +4282,7 @@
         <v>143</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -4293,7 +4293,7 @@
         <v>78</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -4304,7 +4304,7 @@
         <v>79</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -4315,7 +4315,7 @@
         <v>146</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -4326,7 +4326,7 @@
         <v>148</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -4337,7 +4337,7 @@
         <v>151</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -4348,7 +4348,7 @@
         <v>161</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -4359,7 +4359,7 @@
         <v>154</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -4370,128 +4370,128 @@
         <v>156</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -4502,7 +4502,7 @@
         <v>158</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -4513,7 +4513,7 @@
         <v>160</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -4524,7 +4524,7 @@
         <v>163</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -4535,7 +4535,7 @@
         <v>165</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -4546,7 +4546,7 @@
         <v>168</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -4557,7 +4557,7 @@
         <v>169</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -4568,7 +4568,7 @@
         <v>171</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -4579,7 +4579,7 @@
         <v>173</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -4590,7 +4590,7 @@
         <v>175</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -4601,7 +4601,7 @@
         <v>177</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -4612,73 +4612,73 @@
         <v>179</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="B89" s="39" t="s">
-        <v>206</v>
-      </c>
       <c r="C89" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="B90" s="48" t="s">
-        <v>204</v>
-      </c>
       <c r="C90" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="B91" s="39" t="s">
-        <v>202</v>
-      </c>
       <c r="C91" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="B92" s="48" t="s">
-        <v>200</v>
-      </c>
       <c r="C92" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="B93" s="39" t="s">
-        <v>198</v>
-      </c>
       <c r="C93" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="B94" s="39" t="s">
-        <v>196</v>
-      </c>
       <c r="C94" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -4686,10 +4686,10 @@
         <v>193</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>194</v>
+        <v>406</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -4700,7 +4700,7 @@
         <v>80</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -4711,7 +4711,7 @@
         <v>83</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -4722,7 +4722,7 @@
         <v>81</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -4733,7 +4733,7 @@
         <v>84</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -4744,7 +4744,7 @@
         <v>82</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -4755,7 +4755,7 @@
         <v>187</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -4766,7 +4766,7 @@
         <v>185</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -4777,7 +4777,7 @@
         <v>183</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -4788,196 +4788,196 @@
         <v>181</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C111" s="30"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C115" s="30"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C119" s="30"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C122" s="30"/>
     </row>
@@ -4990,8 +4990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5004,22 +5004,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>291</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -5076,7 +5076,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" s="30">
         <v>0.06</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B6" s="30">
         <v>3</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" s="30">
         <v>0.6</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" s="30">
         <v>1.1000000000000001</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9" s="30">
         <v>1.8</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10" s="30">
         <v>2.7</v>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B11" s="30">
         <v>0.7</v>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B12" s="30">
         <v>0.85</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="30">
         <v>0.4</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" s="30">
         <v>0.2</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" s="30">
         <v>1.5</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B16" s="30">
         <v>0.15</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B17" s="30">
         <v>0.01</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B18" s="30">
         <v>0.32</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B19" s="30">
         <v>0.4</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B20" s="30">
         <v>0.6</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B21" s="30">
         <v>0.01</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B22" s="30">
         <v>0.2</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B23" s="30">
         <v>4</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B24" s="30">
         <v>6</v>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B25" s="30">
         <v>2</v>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B26" s="30">
         <v>3</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B27" s="30">
         <v>4</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B28" s="30">
         <v>5</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B29" s="30">
         <v>0.7</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" s="30">
         <v>0.97</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B36" s="30">
         <v>1.01</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B37" s="30">
         <v>1</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B38" s="30">
         <v>1</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" s="30">
         <v>1</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B40" s="30">
         <v>0.99</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B41" s="30">
         <v>0.99</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B42" s="30">
         <v>0.98</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B43" s="30">
         <v>1.0049999999999999</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B44" s="30">
         <v>0.25</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B45" s="30">
         <v>1</v>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B46" s="30">
         <v>0.9</v>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B47" s="30">
         <v>0.85</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B48" s="30">
         <v>0.8</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B49" s="30">
         <v>0.75</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B50" s="30">
         <v>1.48</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B51" s="30">
         <v>0.04</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B52" s="30">
         <v>4.5</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B53" s="30">
         <v>1.7000000000000001E-2</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B54" s="16">
         <v>8.6</v>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B55" s="16">
         <v>0.25700000000000001</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B56" s="16">
         <v>3.6</v>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B57" s="16">
         <v>0.47799999999999998</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B58" s="16">
         <v>1.06</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B59" s="16">
         <v>5.0000000000000001E-4</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B60" s="16">
         <v>1.0000000000000001E-5</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B61" s="30">
         <v>5.0000000000000001E-4</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B62" s="30">
         <v>1.5</v>
@@ -5811,12 +5811,12 @@
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B63" s="30">
         <v>3</v>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B64" s="30">
         <v>1.8</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B65" s="30">
         <v>2.7</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B66" s="30">
         <v>0.7</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B67" s="30">
         <v>0.85</v>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B68" s="30">
         <v>1.2</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B69" s="30">
         <v>1E-3</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B70" s="30">
         <v>1.4</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B71" s="30">
         <v>1.1000000000000001</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B72" s="30">
         <v>3.0000000000000001E-3</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B73" s="30">
         <v>1.5</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B74" s="30">
         <v>1E-4</v>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B75" s="30">
         <v>1.1000000000000001</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B76" s="30">
         <v>1E-4</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B77" s="30">
         <v>1E-4</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B78" s="30">
         <v>1.1000000000000001</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B79" s="30">
         <v>1E-3</v>
@@ -6022,7 +6022,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B80" s="30">
         <v>1E-4</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B81" s="30">
         <v>1.1000000000000001</v>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B82" s="16">
         <v>0.6</v>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B83" s="16">
         <v>2</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B84" s="16">
         <v>4.0000000000000002E-4</v>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B85" s="16">
         <v>0</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B86" s="16">
         <v>0.1</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B87" s="16">
         <v>1.2</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B88" s="16">
         <v>1.5</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B89" s="30">
         <v>1.3</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B90" s="30">
         <v>1.1000000000000001</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B91" s="30">
         <v>3.0000000000000001E-3</v>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B92" s="30">
         <v>0</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B93" s="30">
         <v>7.0000000000000007E-2</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B94" s="30">
         <v>1.1000000000000001</v>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B95" s="30">
         <v>0.03</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B96" s="30">
         <v>0.01</v>
@@ -6228,10 +6228,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B97" s="30">
-        <v>2.9999999999999997E-4</v>
+        <v>0.03</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
@@ -6240,7 +6240,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B98" s="16">
         <v>1.5</v>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B99" s="16">
         <v>0.94</v>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B100" s="16">
         <v>1.01</v>
@@ -6276,10 +6276,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B101" s="16">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B102" s="16">
         <v>1.45</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B103" s="16">
         <v>1E-3</v>
@@ -6312,7 +6312,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B104" s="16">
         <v>1E-3</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B105" s="16">
         <v>1E-3</v>
@@ -6336,7 +6336,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B106" s="16">
         <v>1E-3</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
@@ -6779,7 +6779,7 @@
     </row>
     <row r="98" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B98" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.35">

--- a/ResourceFile_Lifestyle_Enhanced.xlsx
+++ b/ResourceFile_Lifestyle_Enhanced.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="2620" windowWidth="22920" windowHeight="13680" activeTab="2"/>
+    <workbookView xWindow="5600" yWindow="2620" windowWidth="22920" windowHeight="13680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -3711,8 +3711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4990,8 +4990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6243,7 +6243,7 @@
         <v>315</v>
       </c>
       <c r="B98" s="16">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
@@ -6279,7 +6279,7 @@
         <v>317</v>
       </c>
       <c r="B101" s="16">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
@@ -6291,7 +6291,7 @@
         <v>337</v>
       </c>
       <c r="B102" s="16">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
